--- a/ocms/src/test/resources/TestData/FaxReceivedDetailsReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxReceivedDetailsReport.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
-    <sheet name="Queries" sheetId="8" r:id="rId3"/>
-    <sheet name="ShowInNewPage" sheetId="2" r:id="rId4"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId5"/>
-    <sheet name="PreviousAndNextPage" sheetId="10" r:id="rId6"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId7"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId8"/>
-    <sheet name="AdvanceSearch" sheetId="7" r:id="rId9"/>
-    <sheet name="DrillDown" sheetId="9" r:id="rId10"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
+    <sheet name="PreviousAndNextPage" sheetId="10" r:id="rId5"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
+    <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
+    <sheet name="Queries" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
   <si>
     <t>Report Channel</t>
   </si>
@@ -91,53 +90,12 @@
     <t>QueryDrillGridOne</t>
   </si>
   <si>
-    <t>QueryDrillGridTwo</t>
-  </si>
-  <si>
     <t>27-04-2020 00:00:00</t>
   </si>
   <si>
     <t>11-05-2020 00:00:00</t>
   </si>
   <si>
-    <t>SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
-[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],
-[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
-[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total AUX Time],SUM(ExtensionCalls) AS [Extension Interaction],[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) as [Total Extension Time],
-[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time] 
-FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
-INNER JOIN fn_AgentHierarchy('na','1','1') A ON  A.[AgentId]=M.[AgentID]
-WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate'
-GROUP BY M.[AgentID], A.[AgentName],A.[TeamName],A.[SupervisorName]
-Order by [Agent Name];</t>
-  </si>
-  <si>
-    <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') AS TeamName,
-ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS SupervisorName,SUM(ACDCalls) AS TotalInteraction,
-[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) [Total Interaction Time],
-[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],
-SUM([TotalChat]) as [Total Chat],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as [Total Chat Time],
-[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],
-SUM([TotalAudioIP]) [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
-[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total Aux Time],
-SUM(ExtensionCalls) AS [Extension Interaction],
-[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) [Total Extension Time],
-[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],
-[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time]  
-FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
-LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
-LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
-LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
-WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] LIKE 'AgentIdCapturedFromUI'  
-GROUP BY  [Dateint], [AgentID],B.[FirstName],B.[LastName],C.TeamName,A.FirstName,A.LastName ORDER BY [Dateint] ASC;</t>
-  </si>
-  <si>
     <t>6666</t>
   </si>
   <si>
@@ -214,6 +172,44 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>OrgUnitID</t>
+  </si>
+  <si>
+    <t>QueryToGetOrgunitID</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT FaxLine as [Fax Line],COUNT([Type]) AS [Count] 
+FROM (SELECT  [DNIS] as FaxLine, [Type], TransferredAgentID FROM Fax_Received_Details 
+WITH(NOLOCK) WHERE [ReportDateTime] &gt;= 'ReportBeforeDate'  AND [ReportDateTime] &lt;= 'ReportAfterDate'  AND
+Result IS NOT NULL  AND DNIS IN (SELECT DISTINCT DNIS FROM Fax_Dnis 
+WHERE OrgUnit in (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID',''))) )A
+GROUP BY [FaxLine];</t>
+  </si>
+  <si>
+    <t>select R.JobID as [Job ID],R.DNIS as [Fax Line],R.[ReceivedDateTime] as [Date Time],isnull(R.AssignedAgentID,'') as [AssignedAgentID],
+R.[CallerID] as [Caller ID],R.Result,R.[CallDuration] as [Call Duration],R.[FileName] as [File Name],R.[PageCount] as [Page Count],
+isnull(R.[Status],'') as [Print Status],case when S.Result = 0 then 'AckSent' else 'AckNotSent' end as [Ack Status],
+R.[Type],R.[ErrorString] as [Error String],case when Nullif(R.RouteStatus,'') = '' then 'NA'
+when isnull(R.[Routestatus],'') = '' then '' else R.RouteStatus end as [Route Status],R.[ReceiveStatus] as [Receiving Status],
+R.[AnnotatedFile] as [Annotated File Name],' ' as[ ], ' ' as [Preview Original],' ' as [Preview Annotated],' ' as [Print],
+isnull(CWM.[WorkCodeName],'') as [WorkCode Name],isnull(TransferredAgentID,'') as [Transferred Agent ID] 
+from Fax_Received_Details R left join [Fax_Sent_Details] s on R.jobID= S.jobID 
+left join GBL_CallWorkCodeMapping CWM on R.WorkCodes=CWM.WorkCode 
+WHERE R.[ReportDateTime] &gt;= 'ReportBeforeDate'   AND R.[ReportDateTime] &lt;= 'ReportAfterDate' 
+AND R.Result is not null and R.[DNIS] LIKE 'FaxLineCapturedFromUI' ORDER BY R.[ReceivedDateTime]  ASC;</t>
+  </si>
+  <si>
+    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-04-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-04-2020 00:00:00
+</t>
   </si>
 </sst>
 </file>
@@ -255,16 +251,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,19 +582,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -602,32 +605,33 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -636,46 +640,46 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -730,45 +734,45 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>50</v>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -776,25 +780,25 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>37</v>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -802,25 +806,25 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -828,8 +832,8 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>39</v>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -839,81 +843,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="104.5703125" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -945,16 +874,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1006,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1052,19 +981,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1103,24 +1032,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1162,27 +1091,27 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1234,27 +1163,27 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1262,31 +1191,31 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1294,25 +1223,25 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>37</v>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1320,25 +1249,25 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1346,8 +1275,91 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>39</v>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxReceivedDetailsReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxReceivedDetailsReport.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15195" windowHeight="6495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
     <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
-    <sheet name="PreviousAndNextPage" sheetId="10" r:id="rId5"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
-    <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
-    <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
-    <sheet name="Queries" sheetId="12" r:id="rId10"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
   <si>
     <t>Report Channel</t>
   </si>
@@ -54,12 +53,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>OCM Agent Historical Report</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
@@ -69,9 +62,6 @@
     <t>Search String</t>
   </si>
   <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
     <t>Is equal to</t>
   </si>
   <si>
@@ -90,15 +80,6 @@
     <t>QueryDrillGridOne</t>
   </si>
   <si>
-    <t>27-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>11-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
     <t>OCM Fax Received Details Report</t>
   </si>
   <si>
@@ -120,12 +101,6 @@
     <t>Fax Received Detail Report</t>
   </si>
   <si>
-    <t>01-01-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>22-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>7004</t>
   </si>
   <si>
@@ -168,9 +143,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>Fax Line</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -180,15 +152,16 @@
     <t>QueryToGetOrgunitID</t>
   </si>
   <si>
-    <t>SELECT DISTINCT FaxLine as [Fax Line],COUNT([Type]) AS [Count] 
+    <t xml:space="preserve">SELECT DISTINCT FaxLine as [Fax Line],COUNT([Type]) AS [Count] 
 FROM (SELECT  [DNIS] as FaxLine, [Type], TransferredAgentID FROM Fax_Received_Details 
 WITH(NOLOCK) WHERE [ReportDateTime] &gt;= 'ReportBeforeDate'  AND [ReportDateTime] &lt;= 'ReportAfterDate'  AND
 Result IS NOT NULL  AND DNIS IN (SELECT DISTINCT DNIS FROM Fax_Dnis 
 WHERE OrgUnit in (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID',''))) )A
-GROUP BY [FaxLine];</t>
-  </si>
-  <si>
-    <t>select R.JobID as [Job ID],R.DNIS as [Fax Line],R.[ReceivedDateTime] as [Date Time],isnull(R.AssignedAgentID,'') as [AssignedAgentID],
+GROUP BY [FaxLine];
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select R.JobID as [Job ID],R.DNIS as [Fax Line],R.[ReceivedDateTime] as [Date Time],isnull(R.AssignedAgentID,'') as [AssignedAgentID],
 R.[CallerID] as [Caller ID],R.Result,R.[CallDuration] as [Call Duration],R.[FileName] as [File Name],R.[PageCount] as [Page Count],
 isnull(R.[Status],'') as [Print Status],case when S.Result = 0 then 'AckSent' else 'AckNotSent' end as [Ack Status],
 R.[Type],R.[ErrorString] as [Error String],case when Nullif(R.RouteStatus,'') = '' then 'NA'
@@ -198,18 +171,45 @@
 from Fax_Received_Details R left join [Fax_Sent_Details] s on R.jobID= S.jobID 
 left join GBL_CallWorkCodeMapping CWM on R.WorkCodes=CWM.WorkCode 
 WHERE R.[ReportDateTime] &gt;= 'ReportBeforeDate'   AND R.[ReportDateTime] &lt;= 'ReportAfterDate' 
-AND R.Result is not null and R.[DNIS] LIKE 'FaxLineCapturedFromUI' ORDER BY R.[ReceivedDateTime]  ASC;</t>
-  </si>
-  <si>
-    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-04-2020 00:00:00
+AND R.Result is not null and R.[DNIS] LIKE 'FaxLineCapturedFromUI' ORDER BY R.[ReceivedDateTime]  ASC;
 </t>
   </si>
   <si>
-    <t xml:space="preserve">08-04-2020 00:00:00
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';
 </t>
+  </si>
+  <si>
+    <t>Fax Line</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>01-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-07-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -251,22 +251,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,24 +574,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -603,96 +600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6">
-        <v>48</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +619,7 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,117 +636,175 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -874,16 +845,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +867,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,10 +897,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -947,61 +918,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1032,24 +948,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1091,27 +1007,27 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1119,18 +1035,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -1154,129 +1072,129 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1284,82 +1202,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
